--- a/biology/Histoire de la zoologie et de la botanique/Adolph_Modeer/Adolph_Modeer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolph_Modeer/Adolph_Modeer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Adolph Modeer est un naturaliste suédois, né en 1738 et mort en 1799.
 Il se consacre principalement à la malacologie et l’entomologie. Il s’intéresse aussi aux méduses. Il est le secrétaire de la Société de médecine de Stockholm et membre de l’Académie royale des sciences de Suède. Modeer fait notamment paraître :
@@ -516,7 +528,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 9 décembre 2005).</t>
         </is>
